--- a/mineria_medios_sociales/analisis_redes_sociales/MedidasRedesPracticaMMS-I-1.xlsx
+++ b/mineria_medios_sociales/analisis_redes_sociales/MedidasRedesPracticaMMS-I-1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t xml:space="preserve">Nombre y apellidos del alumno: </t>
   </si>
@@ -280,15 +280,6 @@
     <t xml:space="preserve">13629 (99.85 %)</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;Añadir aquí el gráfico de la distribución de grados&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;Añadir aquí el gráfico de la distribución de distancias&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;Añadir aquí el gráfico de la distribución de coeficientes de clustering&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">Centralidad de Grado</t>
   </si>
   <si>
@@ -301,34 +292,64 @@
     <t xml:space="preserve">Vector propio</t>
   </si>
   <si>
-    <t xml:space="preserve">Nombre primer actor: valor primer actor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1er actor: valor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre segundo actor: valor segundo actor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2o actor: valor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre tercer actor: valor tercer actor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3er actor: valor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre cuarto actor: valor cuarto actor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4o actor: valor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre quinto actor: valor quinto actor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5o actor: valor</t>
+    <t xml:space="preserve">Moe Szyslak: 490</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moe Szyslak: 0.099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moe Szyslak: 0.589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moe Sizyslak: 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Milhouse Van Houten: 404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Milhouse Van Houten: 0.093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chief Wiggum: 0.567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seymour Skinner: 0.885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seymour Skinner: 398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chief Wiggum: 0.075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Milhouse Van Houten: 0.565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chief Wiggum: 0.885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chief Wiggum: 398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krusty the Clown: 0.074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lenny Leonard: 0.564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lenny Leonard: 0.848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lenny Leonard: 381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ned Flanders: 0.066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seymour Skinner: 0.562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ned Flanders: 0.842</t>
   </si>
 </sst>
 </file>
@@ -610,23 +631,139 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>810720</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>3809880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="Image 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3867120"/>
+          <a:ext cx="5891760" cy="3809880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12960</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>68040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190800</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>100440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Image 2" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12960" y="8004600"/>
+          <a:ext cx="5258880" cy="5379120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1569240</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>27000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>730800</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>103680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 3" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4794120" y="7963560"/>
+          <a:ext cx="5302080" cy="5423400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C39" activeCellId="0" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -837,10 +974,8 @@
       <c r="E19" s="11"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13" t="s">
-        <v>18</v>
-      </c>
+    <row r="20" customFormat="false" ht="305.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="13"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -864,9 +999,6 @@
       <c r="F22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13" t="s">
-        <v>19</v>
-      </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -880,7 +1012,8 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="342.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="13"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -888,9 +1021,7 @@
       <c r="F25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="13" t="s">
-        <v>20</v>
-      </c>
+      <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -905,7 +1036,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -914,101 +1045,94 @@
       <c r="F28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="A29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>21</v>
+      </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" s="15" t="s">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="B30" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="C30" s="17" t="s">
         <v>24</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" s="17" t="s">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="18" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="18" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="18" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>34</v>
-      </c>
-    </row>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1017,5 +1141,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>